--- a/input/Sablefish_Inputs_test.xlsx
+++ b/input/Sablefish_Inputs_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6308B0FC-2707-E14F-9E33-9B17E900DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6818A947-7EAB-5B4E-BB92-833B3939974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{CA348ABE-781E-D04E-90A2-7352F3084E81}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="239" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -627,7 +627,7 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -643,7 +643,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1405,7 +1405,7 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>57.5</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>

--- a/input/Sablefish_Inputs_test.xlsx
+++ b/input/Sablefish_Inputs_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6818A947-7EAB-5B4E-BB92-833B3939974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B57373C-439D-ED44-B8A5-9C6618C0C953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{CA348ABE-781E-D04E-90A2-7352F3084E81}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{CA348ABE-781E-D04E-90A2-7352F3084E81}"/>
   </bookViews>
   <sheets>
     <sheet name="Controls" sheetId="1" r:id="rId1"/>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC65A0B-C947-E946-A19B-823C994D6250}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="239" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="162" zoomScaleNormal="239" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C32CEA-4D0B-9142-97E4-4A6BC1927971}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
